--- a/data/2019/CHBP-InteractiveMapMaster_Tracking.xlsx
+++ b/data/2019/CHBP-InteractiveMapMaster_Tracking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamshaw/Documents/GitHub/react-chbp/2019_DataInProgress/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamshaw/Documents/GitHub/react-chbp/data/2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4388C28D-877C-8643-BD89-74B23C7D5D39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58392B42-4ECE-5F4C-8DC9-CBC96C62AFEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="337">
   <si>
     <t>#</t>
   </si>
@@ -1038,9 +1038,6 @@
   </si>
   <si>
     <t>First Aid</t>
-  </si>
-  <si>
-    <t>Aveda</t>
   </si>
   <si>
     <t>Merch</t>
@@ -1548,7 +1545,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1559,6 +1556,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1916,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2127,23 +2125,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2299,23 +2297,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2339,23 +2337,23 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2379,23 +2377,23 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2459,23 +2457,23 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2499,23 +2497,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2539,23 +2537,23 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2739,23 +2737,23 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46">
+    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="2" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2819,23 +2817,23 @@
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50">
+    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="2" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3019,43 +3017,43 @@
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60">
+    <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61">
+    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3099,23 +3097,23 @@
         <v>169</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64">
+    <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="2" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3439,23 +3437,23 @@
         <v>221</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81">
+    <row r="81" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="2" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3559,23 +3557,23 @@
         <v>239</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87">
+    <row r="87" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="2" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3619,43 +3617,43 @@
         <v>249</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90">
+    <row r="90" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
-        <v>6</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91">
+    <row r="91" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
-        <v>6</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="2" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3679,23 +3677,23 @@
         <v>258</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93">
+    <row r="93" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="2" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3819,43 +3817,43 @@
         <v>279</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100">
+    <row r="100" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101">
+    <row r="101" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="6">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
-        <v>6</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B101" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="6" t="s">
         <v>285</v>
       </c>
     </row>
@@ -4198,7 +4196,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4214,7 +4212,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="128" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4466,14 +4464,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="158" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="5">
-        <v>157</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
+    <row r="158" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="D1:D124" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/2019/CHBP-InteractiveMapMaster_Tracking.xlsx
+++ b/data/2019/CHBP-InteractiveMapMaster_Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamshaw/Documents/GitHub/react-chbp/data/2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58392B42-4ECE-5F4C-8DC9-CBC96C62AFEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8500333-1575-8349-A187-6BC1AD645C6D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="339">
   <si>
     <t>#</t>
   </si>
@@ -1044,6 +1044,12 @@
   </si>
   <si>
     <t>American Spirit</t>
+  </si>
+  <si>
+    <t>Community Skate Session</t>
+  </si>
+  <si>
+    <t>Join us for a community skate session brought to you by Skate Like A Girl‚ including a custom-build halfpipe, live drone footage, music, prizes, and more!</t>
   </si>
 </sst>
 </file>
@@ -1912,10 +1918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F158"/>
+  <dimension ref="A1:F159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:XFD81"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2145,7 +2151,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4465,6 +4471,17 @@
       </c>
     </row>
     <row r="158" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="5">
+        <v>158</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="D1:D124" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
